--- a/Outputs_study2/WithinAnalysis_Human.xlsx
+++ b/Outputs_study2/WithinAnalysis_Human.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Nature human behavior\Final version\Data and Code\Outputs_study2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Scientific reports\Data and Code\Outputs_study2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CBC9C6-BB51-4205-BF15-4EFCBB0B2FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D2CE8-4C50-49F3-B4F8-5C3F830FD47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>frame</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>ci_up</t>
+  </si>
+  <si>
+    <t>p_adj</t>
   </si>
   <si>
     <t>6 lives (fair)</t>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -454,7 +457,7 @@
     <col min="2" max="2" width="36.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,21 +479,24 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>-5.2372293656638202</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1.6300506877620101E-7</v>
       </c>
       <c r="F2">
@@ -499,16 +505,19 @@
       <c r="G2">
         <v>-5.0233797628413903</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="1">
+        <v>6.5202027510480299E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>-1.74574312188794</v>
@@ -522,21 +531,24 @@
       <c r="G3">
         <v>-1.5318935190655101</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>0.121283397555078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>4.8007935851918297</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1.58038100761537E-6</v>
       </c>
       <c r="F4">
@@ -545,21 +557,24 @@
       <c r="G4">
         <v>5.0146431880142597</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="1">
+        <v>4.7411430228461196E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>4.6904157598234297</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>2.7265046560476202E-6</v>
       </c>
       <c r="F5">
@@ -568,21 +583,24 @@
       <c r="G5">
         <v>4.8993486225909999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="1">
+        <v>6.5436111745143002E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>2.5597302055757601E-12</v>
       </c>
       <c r="F6">
@@ -591,16 +609,19 @@
       <c r="G6">
         <v>7.2449954980675102</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="1">
+        <v>1.7339463198595701E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0.45883146774112299</v>
@@ -614,16 +635,19 @@
       <c r="G7">
         <v>0.68365475567768696</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <v>0.64635519553948995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0.87287156094397</v>
@@ -637,21 +661,24 @@
       <c r="G8">
         <v>1.0867211637664</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>0.45927970666227103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>-4.3643578047198499</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>1.27496749211531E-5</v>
       </c>
       <c r="F9">
@@ -660,21 +687,24 @@
       <c r="G9">
         <v>-4.15050820189742</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="1">
+        <v>2.5499349842306201E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>-6.98297248755176</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>2.8899105330992801E-12</v>
       </c>
       <c r="F10">
@@ -683,16 +713,19 @@
       <c r="G10">
         <v>-6.7691228847293301</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="1">
+        <v>1.7339463198595701E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>-0.48348323512542102</v>
@@ -706,21 +739,24 @@
       <c r="G11">
         <v>-0.27785363773488198</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>0.64635519553948995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>-1.9889519328710199</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>4.6706508734399903E-2</v>
       </c>
       <c r="F12">
@@ -729,16 +765,19 @@
       <c r="G12">
         <v>-1.7480298857863601</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12">
+        <v>8.0068300687542601E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>-1.0245640072531701</v>
@@ -751,6 +790,9 @@
       </c>
       <c r="G13">
         <v>-0.79751915069242796</v>
+      </c>
+      <c r="H13">
+        <v>0.40742527308503002</v>
       </c>
     </row>
   </sheetData>
